--- a/Datos/Database by set/Set with text box/Xlsx sets/Magic Player Rewards 2005 (P05).xlsx
+++ b/Datos/Database by set/Set with text box/Xlsx sets/Magic Player Rewards 2005 (P05).xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A28"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,189 +444,42 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Fireball</t>
+          <t>('Fireball', ['{X}{R}', 'Sorcery', 'This spell costs {1} more to cast for each target beyond the first.', 'Fireball deals X damage divided evenly, rounded down, among any number of targets.'])</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{X}{R}</t>
+          <t>('Mana Leak', ['{1}{U}', 'Instant', 'Counter target spell unless its controller pays {3}.'])</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sorcery</t>
+          <t>('Oxidize', ['{G}', 'Instant', 'Destroy target artifact. It can’t be regenerated.'])</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>This spell costs {1} more to cast for each target beyond the first.</t>
+          <t>('Psychatog', ['{1}{U}{B}', 'Creature — Atog', 'Discard a card: Psychatog gets +1/+1 until end of turn.', 'Exile two cards from your graveyard: Psychatog gets +1/+1 until end of turn.', '1/2'])</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Fireball deals X damage divided evenly, rounded down, among any number of targets.</t>
+          <t>('Reciprocate', ['{W}', 'Instant', 'Exile target creature that dealt damage to you this turn.'])</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Mana Leak</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>{1}{U}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Counter target spell unless its controller pays {3}.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Oxidize</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>{G}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Destroy target artifact. It can’t be regenerated.</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Psychatog</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>{1}{U}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Creature — Atog</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Discard a card: Psychatog gets +1/+1 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Exile two cards from your graveyard: Psychatog gets +1/+1 until end of turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>1/2</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Reciprocate</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>{W}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Exile target creature that dealt damage to you this turn.</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Terror</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>{1}{B}</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Instant</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Destroy target nonartifact, nonblack creature. It can’t be regenerated.</t>
+          <t>('Terror', ['{1}{B}', 'Instant', 'Destroy target nonartifact, nonblack creature. It can’t be regenerated.'])</t>
         </is>
       </c>
     </row>
